--- a/data/trans_camb/P25A_11_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_11_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-1,83</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>97,6</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>98,05</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>97,82</t>
+          <t>-2,42</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,76</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 0,48</t>
+          <t>-3,55; 6,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 1,59</t>
+          <t>-2,85; 6,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,18; 99,37</t>
+          <t>-2,25; 7,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 4,58</t>
+          <t>-8,47; 1,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,73</t>
+          <t>-2,83; 3,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,97; 99,41</t>
+          <t>-2,32; 4,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,54</t>
+          <t>-2,49; 4,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,34</t>
+          <t>1,4; 12,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>94,97; 99,07</t>
+          <t>-9,69; 3,6</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,29; 2,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 4,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 3,8</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 8,51</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 1,59</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 1,8</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-76,39%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-47,65%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4063,24%</t>
+          <t>69,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,07%</t>
+          <t>-50,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5028,28%</t>
+          <t>53,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-23,65%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-22,94%</t>
+          <t>309,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4477,61%</t>
+          <t>-30,96%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-41,25%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23,33%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>182,47%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-39,34%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-33,62%</t>
         </is>
       </c>
     </row>
@@ -801,12 +939,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1356,28; 15792,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,87; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +954,52 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1886,95; 16748,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,07; 209,58</t>
+          <t>-82,1; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,32; 156,62</t>
+          <t>4,83; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1879,53; 10688,62</t>
+          <t>-78,13; 88,02</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-77,08; 51,47</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-69,87; 468,58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-71,96; 475,47</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 849,46</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-77,7; 57,42</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-75,13; 62,09</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,59</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,08</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>43,91</t>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,24</t>
+          <t>-3,71; 2,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 2,31</t>
+          <t>-4,09; 2,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,25; 87,77</t>
+          <t>-3,6; 3,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,15</t>
+          <t>-0,84; 9,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,73</t>
+          <t>-4,03; 7,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,75; 59,32</t>
+          <t>-0,8; 5,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,98</t>
+          <t>-2,51; 2,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,88</t>
+          <t>1,42; 10,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,43; 65,54</t>
+          <t>-6,15; 3,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 8,29</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 3,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 1,96</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 5,74</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 5,2</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 6,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-17,1%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,57%</t>
+          <t>-8,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2377,56%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>136,33%</t>
+          <t>134,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1773,52%</t>
+          <t>138,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>321,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2133,35%</t>
+          <t>-16,81%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>134,2%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>133,73%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>71,99%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-86,65; 277,43</t>
+          <t>-90,37; 379,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,09; 267,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>445,45; 9421,61</t>
+          <t>-86,11; 325,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 818,69</t>
+          <t>-31,8; 873,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-85,4; —</t>
+          <t>-59,86; 366,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>171,07; —</t>
+          <t>-52,4; 954,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,33; 304,82</t>
+          <t>-81,59; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,09; 208,46</t>
+          <t>3,07; 1784,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>822,37; 6483,99</t>
+          <t>-64,05; 89,75</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-22,95; 814,76</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-44,12; 278,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-64,91; 198,15</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 509,62</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-32,49; 169,56</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-27,23; 296,83</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>71,01</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>0,93</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>49,29</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>56,78</t>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,93</t>
+          <t>-5,05; 0,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -0,61</t>
+          <t>-6,11; -0,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,37; 89,43</t>
+          <t>-4,48; 1,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 3,37</t>
+          <t>-0,01; 7,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 4,44</t>
+          <t>-2,15; 6,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,26; 67,35</t>
+          <t>-1,97; 4,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,24</t>
+          <t>-1,18; 5,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,38</t>
+          <t>-0,84; 6,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40,03; 69,79</t>
+          <t>-3,84; 6,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 6,69</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 1,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 1,84</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 3,49</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 5,73</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 5,22</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-47,85%</t>
+          <t>-53,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-81,35%</t>
+          <t>-82,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2200,95%</t>
+          <t>-33,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>152,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>45,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>864,93%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-20,3%</t>
+          <t>54,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-17,43%</t>
+          <t>67,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1270,27%</t>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>24,17%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,96%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-5,45%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>49,44%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>32,73%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,53; 87,95</t>
+          <t>-90,2; 46,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 7,84</t>
+          <t>-100,0; -2,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1031,33; 5279,16</t>
+          <t>-82,91; 96,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,71; 107,59</t>
+          <t>-14,6; 647,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 144,29</t>
+          <t>-37,39; 259,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>275,4; 1728,19</t>
+          <t>-36,38; 170,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,64; 44,43</t>
+          <t>-22,41; 203,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,76; 47,46</t>
+          <t>-17,46; 223,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>600,81; 2146,18</t>
+          <t>-40,67; 113,81</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-31,28; 149,53</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-50,23; 68,7</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-46,92; 72,9</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-27,15; 125,18</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 167,9</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-22,62; 132,16</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>57,74</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>58,3</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>58,87</t>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,18</t>
+          <t>-2,89; 3,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 5,47</t>
+          <t>-1,09; 5,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,87; 81,24</t>
+          <t>-0,81; 5,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,57</t>
+          <t>-2,88; 6,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,59</t>
+          <t>-1,03; 7,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,53; 71,19</t>
+          <t>-3,89; 4,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,37</t>
+          <t>-3,68; 4,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,68</t>
+          <t>-0,83; 8,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,69; 70,34</t>
+          <t>-3,47; 6,81</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 6,0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 2,47</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 3,83</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 5,67</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 5,32</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 5,35</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73,24%</t>
+          <t>66,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1867,47%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>862,04%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>52,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1178,23%</t>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>23,99%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>56,08%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,52; 171,96</t>
+          <t>-62,02; 185,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 307,45</t>
+          <t>-29,56; 266,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>687,3; 4508,78</t>
+          <t>-23,87; 351,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 93,02</t>
+          <t>-41,83; 184,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,99; 97,45</t>
+          <t>-26,49; 368,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>516,53; 1514,76</t>
+          <t>-42,55; 91,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 61,09</t>
+          <t>-40,32; 83,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 94,67</t>
+          <t>-10,62; 157,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>746,51; 1779,94</t>
+          <t>-27,41; 86,64</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-40,38; 72,14</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-37,46; 61,02</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-21,77; 93,93</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 143,88</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-24,28; 75,06</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-21,3; 94,0</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>73,06</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>74,64</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>74,43</t>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,44</t>
+          <t>-5,17; 1,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,45</t>
+          <t>-4,2; 2,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>50,6; 87,97</t>
+          <t>-3,8; 3,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 8,27</t>
+          <t>3,76; 14,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 10,91</t>
+          <t>-3,44; 9,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>59,99; 84,31</t>
+          <t>-1,85; 8,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,88</t>
+          <t>0,09; 10,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,4</t>
+          <t>2,28; 14,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>63,65; 82,51</t>
+          <t>-7,55; 7,11</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-9,74; 4,21</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 3,71</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 5,08</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 8,05</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 8,55</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 4,83</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-38,27%</t>
+          <t>-38,78%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-11,3%</t>
+          <t>-12,62%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1834,48%</t>
+          <t>-6,58%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>225,43%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>89,53%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1209,36%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>127,13%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1462,74%</t>
+          <t>-2,16%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-16,08%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>43,58%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>77,43%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>43,1%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-81,97; 84,48</t>
+          <t>-80,1; 71,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-70,48; 128,32</t>
+          <t>-68,16; 122,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>879,98; 3822,29</t>
+          <t>-66,37; 146,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 205,14</t>
+          <t>53,55; 598,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 259,22</t>
+          <t>-27,99; 153,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>694,49; 2217,72</t>
+          <t>-26,51; 196,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 104,49</t>
+          <t>-2,59; 234,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 152,25</t>
+          <t>16,65; 341,28</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>935,67; 2337,32</t>
+          <t>-39,93; 63,36</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-46,84; 32,02</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-33,18; 98,0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; 130,78</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 206,71</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 112,92</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-28,38; 45,46</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>64,64</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>37,1</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>40,88</t>
+          <t>8,13</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6,47</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4,33</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 18,64</t>
+          <t>-3,18; 13,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 4,31</t>
+          <t>-9,95; 3,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,9; 97,11</t>
+          <t>-9,78; 2,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 4,73</t>
+          <t>-5,33; 3,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 6,21</t>
+          <t>-1,94; 5,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,35; 55,82</t>
+          <t>-7,5; 4,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 8,15</t>
+          <t>-5,88; 8,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 4,15</t>
+          <t>-8,05; 5,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,83; 60,88</t>
+          <t>-0,24; 15,14</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 14,36</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 7,09</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 5,34</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 2,74</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 9,51</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 9,15</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>127,91%</t>
+          <t>102,31%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-18,86%</t>
+          <t>-24,57%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1180,65%</t>
+          <t>-38,9%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-9,11%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>421,97%</t>
+          <t>-11,59%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>-11,62%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>556,28%</t>
+          <t>101,16%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>66,79%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-20,63%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>79,82%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>66,84%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 726,69</t>
+          <t>-55,73; 511,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-91,24; 180,82</t>
+          <t>-90,02; 201,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>98,68; 4256,81</t>
+          <t>-100,0; 130,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 89,05</t>
+          <t>-89,87; 318,81</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 114,25</t>
+          <t>-77,0; 657,27</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>160,26; 960,52</t>
+          <t>-61,26; 77,44</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 152,05</t>
+          <t>-49,54; 145,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,66; 83,97</t>
+          <t>-67,49; 93,96</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>240,17; 1036,94</t>
+          <t>-9,32; 300,11</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-12,3; 242,08</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-34,35; 146,26</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-49,03; 104,29</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-62,37; 61,32</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 250,18</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 219,38</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>66,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>56,15</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>59,41</t>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,59</t>
+          <t>-1,64; 2,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,91</t>
+          <t>-2,33; 1,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>51,52; 76,53</t>
+          <t>-1,54; 1,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,41</t>
+          <t>0,71; 4,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,98</t>
+          <t>-0,05; 4,11</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>46,7; 63,54</t>
+          <t>-1,03; 2,56</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,9</t>
+          <t>-0,48; 3,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,47</t>
+          <t>1,64; 6,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>52,75; 65,31</t>
+          <t>-0,73; 4,32</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 3,86</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 1,99</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 1,75</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 3,23</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 3,76</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 3,19</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>-12,76%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1943,82%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1016,01%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>70,41%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1324,56%</t>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>44,46%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>32,7%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>22,68%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 100,64</t>
+          <t>-38,4; 75,93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 37,68</t>
+          <t>-50,3; 41,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1165,22; 2767,55</t>
+          <t>-35,37; 66,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 53,09</t>
+          <t>15,79; 167,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 65,81</t>
+          <t>-1,92; 122,46</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>737,29; 1387,15</t>
+          <t>-16,13; 61,35</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 48,74</t>
+          <t>-8,08; 79,1</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 38,08</t>
+          <t>22,56; 133,47</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1010,52; 1710,22</t>
+          <t>-7,28; 54,17</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; 45,91</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-14,33; 51,85</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-13,39; 46,96</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 83,66</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>7,15; 67,08</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 49,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
